--- a/LakePowellOutletModifications/Lake_Powell_Area_Capacity_Table_Report_FINAL.xlsx
+++ b/LakePowellOutletModifications/Lake_Powell_Area_Capacity_Table_Report_FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborate\LakePowellOutletModifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528FA95-EFAA-410B-8E97-C4CC224DA565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B688C4-2D78-4BCE-A026-4E5158DFFFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>Bradley, D., and Collins, K. (2022). "Lake Powell 2017 Area and Capacity Tables." ENV-2021-98, Reclamation. https://doi.org/10.5066/P9O3IPG3.</t>
   </si>
   <si>
-    <t>This Excel workbook presents in digital format the updated Elevation-Storage-Area curves (Bathymetry) for Lake Powell in 2018.</t>
+    <t>This Excel workbook presents in digital format the updated Elevation-Storage-Area curves (Bathymetry) for Lake Powell in 2018 (at 1 foot increments)</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -232,16 +232,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EB4D26-A6DA-412C-826B-1D020E34670B}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A73618-2FF1-4BC8-A7FD-13CA210921C1}">
   <dimension ref="A1:Z582"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
